--- a/Holidays_Calender/Calendar.xlsx
+++ b/Holidays_Calender/Calendar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Working Day</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>WorkingDay</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +434,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -436,6 +445,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -444,6 +456,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -452,6 +467,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -460,6 +478,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -468,6 +489,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -476,6 +500,9 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -484,6 +511,9 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -492,6 +522,9 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -500,6 +533,9 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -508,6 +544,9 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -516,6 +555,9 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -524,6 +566,9 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -532,6 +577,9 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -539,6 +587,9 @@
       </c>
       <c r="B16" t="s">
         <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -557,7 +608,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
